--- a/docs/Project management log.xlsx
+++ b/docs/Project management log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\OneDrive - Imperial College London\Academics\1 - Second year\Computer Architecture\Compilers\Coursework\langproc-2020-cw\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD16C62A-0383-45FB-A292-05BBCECBB325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FDF638-DF48-4FE0-A02E-D15F8A333C44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{213354E9-A052-42DE-8017-C3CE4FAB8D3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{213354E9-A052-42DE-8017-C3CE4FAB8D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -59,11 +59,6 @@
   </si>
   <si>
     <t>Ebby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Cleaning: Refactor code
-- Implement: Function argument
-- Implement: Arithmetic </t>
   </si>
   <si>
     <t>- Research: Arrays and loops
@@ -143,9 +138,6 @@
     <t>Function arguments</t>
   </si>
   <si>
-    <t>Declarations</t>
-  </si>
-  <si>
     <t>Basic requirements</t>
   </si>
   <si>
@@ -158,9 +150,6 @@
     <t>Switch</t>
   </si>
   <si>
-    <t>While and For</t>
-  </si>
-  <si>
     <t>Arrays</t>
   </si>
   <si>
@@ -180,9 +169,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>6</t>
@@ -228,9 +214,6 @@
 would need to be more fortified as the project progresses. Most work spent in understanding directives and how frames are allocated and deallocated.</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meeting with Ebby agreed to shift more work onto me and he can spend more time on information processing. More time this week to fortify some code and beautify the codebase.
 </t>
   </si>
@@ -286,13 +269,7 @@
     <t>Advanced lexer and parser</t>
   </si>
   <si>
-    <t>Pointers, floats and keywords</t>
-  </si>
-  <si>
     <t>Hours</t>
-  </si>
-  <si>
-    <t>Arithmetic</t>
   </si>
   <si>
     <t>- Implement: Declaration
@@ -301,9 +278,6 @@
 - Implement: Loops</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -315,6 +289,47 @@
   </si>
   <si>
     <t>Advanced context</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arithmetic </t>
+  </si>
+  <si>
+    <t>Declarations and local variables</t>
+  </si>
+  <si>
+    <t>Conditional structure</t>
+  </si>
+  <si>
+    <t>Loops</t>
+  </si>
+  <si>
+    <t>Advanced requirement syntax</t>
+  </si>
+  <si>
+    <t>- Cleaning: Refactor code
+- Implement: Function argument
+- Implement: Arithmetic 
+- Implement: Loops</t>
+  </si>
+  <si>
+    <t>Break and continue</t>
+  </si>
+  <si>
+    <t>- Implement: Declaration
+- Implement: Conditional
+- Implement: While</t>
+  </si>
+  <si>
+    <t>- Implement: Break and Continue
+- Implement: Sizeof
+- Implement: Switch
+- Implement: Arrays</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
 </sst>
 </file>
@@ -361,38 +376,11 @@
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,55 +409,82 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2292DCBB-85D8-4115-A91E-1B8BFCB6983C}">
-  <dimension ref="B2:D26"/>
+  <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,192 +811,216 @@
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="34"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="D9" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="5">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14">
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="14">
-        <v>9</v>
+        <v>78</v>
+      </c>
+      <c r="D16" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="14">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="D17" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="14">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="D18" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="14">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="D19" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="14"/>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
       <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="14">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D22" s="14"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="14">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="14">
-        <v>20</v>
-      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
       <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="14">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="14">
+        <v>35</v>
+      </c>
+      <c r="D26" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="5">
         <v>10</v>
       </c>
     </row>
@@ -997,19 +1036,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51ECA06-AB8C-4BF3-91E4-4FE0B41C666F}">
   <dimension ref="A2:I37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
-    <col min="2" max="2" width="2.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="2.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="21"/>
-    <col min="6" max="6" width="34.33203125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="12"/>
+    <col min="6" max="6" width="34.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="11" customWidth="1"/>
     <col min="8" max="8" width="37.88671875" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" customWidth="1"/>
     <col min="10" max="10" width="14.21875" customWidth="1"/>
@@ -1020,527 +1059,559 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="24" t="s">
+      <c r="A3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="24"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>44250</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
+      <c r="D4" s="3"/>
+      <c r="E4" s="30">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>23</v>
+      <c r="I4" s="24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="C5" s="6">
+      <c r="A5" s="30"/>
+      <c r="C5" s="3">
         <v>44251</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="9"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="C6" s="6">
+      <c r="A6" s="30"/>
+      <c r="C6" s="3">
         <v>44252</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="9"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="C7" s="6">
+      <c r="A7" s="30"/>
+      <c r="C7" s="3">
         <v>44253</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="9"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="30"/>
       <c r="C8" s="1">
         <v>44254</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="13">
+      <c r="E8" s="29">
         <v>2</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>20</v>
+      <c r="G8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="8"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="10"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>44255</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="10"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="30"/>
       <c r="C11" s="1">
         <v>44256</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="10"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="30"/>
       <c r="C12" s="1">
         <v>44257</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="10"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="30"/>
       <c r="C13" s="1">
         <v>44258</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="10"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="30"/>
       <c r="C14" s="1">
         <v>44259</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="13">
+      <c r="E14" s="29">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="10" t="s">
+      <c r="F14" s="28" t="s">
         <v>21</v>
       </c>
+      <c r="G14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="30"/>
       <c r="C15" s="1">
         <v>44260</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="10"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="30"/>
       <c r="C16" s="1">
         <v>44261</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="13"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="18"/>
+      <c r="E17" s="29"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="30">
         <v>3</v>
       </c>
       <c r="C18" s="1">
         <v>44262</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="13">
+      <c r="E18" s="29">
         <v>4</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>47</v>
+      <c r="F18" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="30"/>
       <c r="C19" s="1">
         <v>44263</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="10"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="30"/>
       <c r="C20" s="1">
         <v>44264</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="10"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="30"/>
       <c r="C21" s="1">
         <v>44265</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="13">
+      <c r="E21" s="29">
         <v>5</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>20</v>
+      <c r="I21" s="25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="30"/>
       <c r="C22" s="1">
         <v>44266</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="10"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="30"/>
       <c r="C23" s="1">
         <v>44267</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="10"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="18"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="30">
         <v>4</v>
       </c>
       <c r="C25" s="1">
         <v>44268</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="13">
+      <c r="E25" s="29">
         <v>6</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>41</v>
+      <c r="F25" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="A26" s="30"/>
       <c r="C26" s="1">
         <v>44269</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="11"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
+      <c r="A27" s="30"/>
       <c r="C27" s="1">
         <v>44270</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="11"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="30"/>
       <c r="C28" s="1">
         <v>44271</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="13">
+      <c r="E28" s="29">
         <v>7</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>40</v>
+      <c r="I28" s="23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="30"/>
       <c r="C29" s="1">
         <v>44272</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="11"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="30"/>
       <c r="C30" s="1">
         <v>44273</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="11"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="30"/>
       <c r="C31" s="1">
         <v>44274</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="11"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="18"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="30">
         <v>5</v>
       </c>
       <c r="C33" s="1">
         <v>44275</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="13">
+      <c r="E33" s="29">
         <v>9</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="11"/>
+      <c r="F33" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
+      <c r="A34" s="30"/>
       <c r="C34" s="1">
         <v>44276</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="11"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="23"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
+      <c r="A35" s="30"/>
       <c r="C35" s="1">
         <v>44277</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="11"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
+      <c r="A36" s="30"/>
       <c r="C36" s="1">
         <v>44278</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="11"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
+      <c r="A37" s="30"/>
       <c r="C37" s="1">
         <v>44279</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="14">
+      <c r="E37" s="5">
         <v>10</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>47</v>
+      <c r="F37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E33:E36"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="G33:G36"/>
@@ -1557,38 +1628,6 @@
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" copies="2" r:id="rId1"/>
@@ -1599,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9081CB17-729E-4C8C-A8BD-36A9ACE7F793}">
   <dimension ref="A2:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1610,689 +1649,720 @@
     <col min="8" max="8" width="6.6640625" customWidth="1"/>
     <col min="9" max="9" width="39.109375" customWidth="1"/>
     <col min="10" max="10" width="7.109375" customWidth="1"/>
-    <col min="12" max="12" width="44.88671875" style="28" customWidth="1"/>
-    <col min="13" max="13" width="39.21875" style="28" customWidth="1"/>
+    <col min="12" max="12" width="44.88671875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="39.21875" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="L2" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="32"/>
+      <c r="G2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="L2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="22"/>
-      <c r="G3" s="24" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="13"/>
+      <c r="G3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="L3" s="31" t="s">
+      <c r="J3" s="22"/>
+      <c r="L3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="31" t="s">
-        <v>50</v>
+      <c r="M3" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="6">
+      <c r="B4" s="6"/>
+      <c r="C4" s="3">
         <v>44250</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8">
+      <c r="D4" s="3"/>
+      <c r="E4" s="30">
         <v>1</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>52</v>
+      <c r="J4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="6">
+      <c r="A5" s="30"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3">
         <v>44251</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="35"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="40"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="6">
+      <c r="A6" s="30"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3">
         <v>44252</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="35"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="40"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="6">
+      <c r="A7" s="30"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3">
         <v>44253</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="35"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="30"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="40"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1">
         <v>44254</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="13">
+      <c r="E8" s="29">
         <v>2</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="G8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>53</v>
+      <c r="H8" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="13"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="36"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
+      <c r="E9" s="29"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="39"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <v>44255</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="36"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="E10" s="29"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="39"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1">
         <v>44256</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="13"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="36"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="E11" s="29"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="39"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1">
         <v>44257</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="36"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="E12" s="29"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="39"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1">
         <v>44258</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="13"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="36"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="E13" s="29"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="39"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1">
         <v>44259</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="13">
+      <c r="E14" s="29">
         <v>3</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>57</v>
+      <c r="G14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="25">
+        <v>15</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1">
         <v>44260</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="13"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="36"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="15"/>
+      <c r="E15" s="29"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="39"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1">
         <v>44261</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="13"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="36"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
+      <c r="E16" s="29"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="39"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="13"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="39"/>
+      <c r="E17" s="29"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="30">
         <v>3</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1">
         <v>44262</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="13">
+      <c r="E18" s="29">
         <v>4</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>61</v>
+      <c r="G18" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1">
         <v>44263</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="13"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="36"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
+      <c r="E19" s="29"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="39"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="1">
         <v>44264</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="13"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="36"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
+      <c r="E20" s="29"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="39"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="1">
         <v>44265</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="13">
+      <c r="E21" s="29">
         <v>5</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I21" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="M21" s="25"/>
+      <c r="J21" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="34"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="1">
         <v>44266</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="13"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="36"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="15"/>
+      <c r="E22" s="29"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="39"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="34"/>
+    </row>
+    <row r="23" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="1">
         <v>44267</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="13"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="36"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="25"/>
+      <c r="E23" s="29"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="39"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="21"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="39"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="30">
         <v>4</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="1">
         <v>44268</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="13">
+      <c r="E25" s="29">
         <v>6</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" s="25"/>
+      <c r="G25" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="M25" s="34"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="1">
         <v>44269</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="13"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="38"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="25"/>
+      <c r="E26" s="29"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="37"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="34"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="1">
         <v>44270</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="13"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="38"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="25"/>
+      <c r="E27" s="29"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="37"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="34"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="1">
         <v>44271</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="13">
+      <c r="E28" s="29">
         <v>7</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" s="27" t="s">
+      <c r="J28" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="32" t="s">
         <v>59</v>
       </c>
+      <c r="M28" s="32" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="15"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="1">
         <v>44272</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="13"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="38"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
+      <c r="E29" s="29"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="37"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="1">
         <v>44273</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="13"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="38"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
+      <c r="E30" s="29"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="37"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="1">
         <v>44274</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="13"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="38"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
+      <c r="E31" s="29"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="37"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="21"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="39"/>
+      <c r="E32" s="12"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
+      <c r="A33" s="30">
         <v>5</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="1">
         <v>44275</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="13">
+      <c r="E33" s="29">
         <v>9</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="37"/>
+      <c r="L33" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="M33" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="38"/>
-      <c r="L33" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="M33" s="27" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="1">
         <v>44276</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="13"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="38"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
+      <c r="E34" s="29"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="37"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="1">
         <v>44277</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="13"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="38"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
+      <c r="E35" s="29"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="37"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="1">
         <v>44278</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="13"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="38"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
+      <c r="E36" s="29"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="37"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
     </row>
     <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="1">
         <v>44279</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="14">
+      <c r="E37" s="5">
         <v>10</v>
       </c>
-      <c r="G37" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="33" t="s">
-        <v>66</v>
+      <c r="G37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="10">
+        <v>6</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H40" s="40"/>
+      <c r="H40" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="L33:L36"/>
-    <mergeCell ref="M33:M36"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
+  <mergeCells count="65">
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="E33:E36"/>
     <mergeCell ref="H33:H36"/>
     <mergeCell ref="J33:J36"/>
     <mergeCell ref="L2:M2"/>
@@ -2309,45 +2379,15 @@
     <mergeCell ref="H25:H27"/>
     <mergeCell ref="J25:J27"/>
     <mergeCell ref="H28:H31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="L33:L36"/>
+    <mergeCell ref="M33:M36"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
